--- a/AutoLoader/ThMEPEngine/Contents/Support/PowerDistributionSystem/LV_AC_CPS_ImportLibrary_19DX101.xlsx
+++ b/AutoLoader/ThMEPEngine/Contents/Support/PowerDistributionSystem/LV_AC_CPS_ImportLibrary_19DX101.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CPS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CPS!$A$2:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CPS!$A$2:$U$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="72">
   <si>
     <t>Install Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,89 +169,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10;30;100;300</t>
+  </si>
+  <si>
+    <t>No Pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认不选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M;P;F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS Characteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residual Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;30;100;300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D;J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25;0.4;0.63;1;1.6;2.5;4;6.3;12;16;18;25;32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25;0.4;0.63;1;1.6;2.5;4;6.3;12;16;18;25;32;40;45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;18;25;32;40;45;50;63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;18;25;32;40;45;50;63;80;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;18;25;32;40;45;50;63;80;100;125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;18;25;32;40;45;50;63;80;100;125;160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;18;25;32;40;45;50;63;80;100;125;160;225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS Combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%;70%;100%</t>
+  </si>
+  <si>
+    <t>额定极限分断能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icu(kA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Icu Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;30;100;300</t>
-  </si>
-  <si>
-    <t>No Pick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认不选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M;P;F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS Characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residual Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;30;100;300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D;J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25;0.4;0.63;1;1.6;2.5;4;6.3;12;16;18;25;32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25;0.4;0.63;1;1.6;2.5;4;6.3;12;16;18;25;32;40;45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;18;25;32;40;45;50;63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;18;25;32;40;45;50;63;80;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;18;25;32;40;45;50;63;80;100;125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;18;25;32;40;45;50;63;80;100;125;160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;18;25;32;40;45;50;63;80;100;125;160;225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS Combination</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,15 +669,17 @@
     <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="13" width="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="20" width="8.625" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="21" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -642,52 +699,55 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
+      <c r="V1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -704,57 +764,60 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
         <v>32</v>
@@ -763,38 +826,55 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>45</v>
@@ -803,38 +883,55 @@
         <v>0.4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>63</v>
@@ -843,38 +940,55 @@
         <v>0.4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -883,38 +997,55 @@
         <v>0.4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="4">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>125</v>
@@ -923,38 +1054,55 @@
         <v>0.4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>160</v>
@@ -963,38 +1111,55 @@
         <v>0.4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4">
         <v>225</v>
@@ -1003,37 +1168,453 @@
         <v>0.4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="4">
+        <v>70</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="4">
+        <v>70</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="4">
+        <v>70</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="4">
+        <v>70</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="4">
+        <v>70</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4">
+        <v>160</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4">
+        <v>70</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4">
+        <v>225</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="4">
+        <v>70</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T2"/>
+  <autoFilter ref="A2:U2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
